--- a/毕设论文/毕设图表-总体.xlsx
+++ b/毕设论文/毕设图表-总体.xlsx
@@ -146,7 +146,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -295,11 +294,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="453187376"/>
-        <c:axId val="453190904"/>
+        <c:axId val="629494672"/>
+        <c:axId val="629496848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="453187376"/>
+        <c:axId val="629494672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +327,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -389,7 +387,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453190904"/>
+        <c:crossAx val="629496848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -397,7 +395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453190904"/>
+        <c:axId val="629496848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +438,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -495,7 +492,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453187376"/>
+        <c:crossAx val="629494672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -637,10 +634,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$19:$A$741</c:f>
+              <c:f>Sheet1!$A$19:$A$276</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="723"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>41473</c:v>
                 </c:pt>
@@ -1414,1398 +1411,6 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>41730</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>41731</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>41732</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>41733</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>41734</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>41735</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>41736</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>41737</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>41738</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>41739</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>41740</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>41741</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>41742</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>41743</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>41744</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>41745</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>41746</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>41747</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>41748</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>41749</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>41750</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>41751</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>41752</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>41753</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>41754</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>41755</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>41756</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>41757</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>41758</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>41759</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>41760</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>41761</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>41762</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>41763</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>41764</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>41765</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>41766</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>41767</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>41768</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>41769</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>41770</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>41771</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>41772</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>41773</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>41774</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>41775</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>41776</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>41777</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>41778</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>41779</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>41780</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>41781</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>41782</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>41783</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>41784</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>41785</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>41786</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>41787</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>41788</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>41789</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>41790</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>41792</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>41793</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>41794</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>41795</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>41796</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>41797</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>41798</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>41799</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>41800</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>41801</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>41802</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>41803</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>41804</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>41805</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>41806</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>41807</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>41808</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>41809</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>41810</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>41811</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>41812</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>41813</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>41814</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>41815</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>41816</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>41817</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>41818</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>41819</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>41821</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>41822</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>41823</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>41824</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>41825</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>41826</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>41827</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>41828</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>41829</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>41830</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>41831</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>41832</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>41833</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>41834</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>41835</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>41836</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>41837</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>41838</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>41839</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>41840</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>41841</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>41842</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>41843</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>41844</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>41845</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>41846</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>41847</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>41848</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>41849</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>41850</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>41851</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>41852</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>41853</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>41854</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>41855</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>41856</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>41857</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>41858</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>41859</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>41860</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>41861</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>41862</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>41863</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>41864</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>41865</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>41866</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>41867</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>41868</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>41869</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>41870</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>41871</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>41872</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>41873</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>41874</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>41875</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>41876</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>41877</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>41878</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>41879</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>41880</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>41881</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>41882</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>41884</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>41885</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>41886</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>41887</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>41888</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>41889</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>41890</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>41891</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>41892</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>41893</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>41894</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>41895</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>41896</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>41897</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>41898</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>41899</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>41900</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>41901</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>41902</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>41903</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>41904</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>41905</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>41906</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>41907</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>41908</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>41910</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>41911</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>41912</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>41913</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>41914</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>41915</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>41916</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>41917</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>41918</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>41919</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>41920</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>41921</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>41922</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>41923</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>41924</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>41925</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>41926</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>41927</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>41928</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>41929</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>41930</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>41931</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>41932</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>41933</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>41934</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>41935</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>41936</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>41937</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>41938</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>41939</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>41940</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>41941</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>41942</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>41943</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>41944</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>41945</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>41946</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>41947</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>41948</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>41949</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>41950</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>41951</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>41952</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>41953</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>41954</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>41955</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>41956</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>41957</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>41958</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>41959</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>41960</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>41961</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>41962</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>41963</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>41964</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>41965</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>41966</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>41967</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>41968</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>41969</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>41970</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>41971</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>41972</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>41973</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>41975</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>41976</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>41977</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>41978</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>41979</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>41980</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>41981</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>41982</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>41983</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>41984</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>41985</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>41986</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>41987</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>41988</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>41989</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>41990</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>41991</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>41992</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>41993</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>41994</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>41995</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>41996</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>41997</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>41998</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>41999</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>42001</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>42002</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>42003</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>42005</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>42006</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>42007</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>42008</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>42009</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>42010</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>42011</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>42012</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>42013</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>42014</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>42015</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>42016</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>42017</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>42018</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>42019</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>42020</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>42021</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>42023</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>42024</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>42025</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>42026</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>42027</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>42028</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>42030</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>42031</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>42032</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>42033</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>42034</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>42035</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>42036</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>42037</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>42038</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>42039</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>42040</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>42041</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>42042</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>42043</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>42044</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>42045</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>42046</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>42047</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>42048</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>42049</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>42050</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>42051</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>42052</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>42053</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>42054</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>42055</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>42056</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>42057</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>42058</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>42059</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>42060</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>42061</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>42062</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>42063</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>42065</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>42066</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>42067</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>42068</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>42069</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>42070</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>42071</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>42072</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>42073</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>42074</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>42075</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>42076</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>42077</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>42078</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>42079</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>42080</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>42081</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>42082</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>42083</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>42084</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>42085</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>42086</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>42087</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>42088</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>42089</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>42090</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>42091</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>42092</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>42093</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>42094</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>42095</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>42096</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>42097</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>42098</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>42099</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>42100</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>42101</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>42102</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>42103</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>42104</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>42105</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>42106</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>42107</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>42108</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>42109</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>42111</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>42112</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>42113</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>42115</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>42116</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>42117</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>42118</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>42119</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>42120</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>42122</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>42123</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>42124</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>42125</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>42126</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>42127</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>42128</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>42129</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>42130</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>42131</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>42132</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>42133</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>42134</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>42135</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>42136</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>42137</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>42138</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>42139</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>42140</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>42141</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>42142</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>42143</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>42144</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>42145</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>42146</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>42147</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>42148</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>42149</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>42150</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>42151</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>42152</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>42153</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>42154</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>42155</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>42157</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>42158</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>42159</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>42160</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>42161</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>42162</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>42163</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>42164</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>42165</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>42166</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>42167</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>42168</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>42169</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>42171</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>42172</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>42173</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>42174</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>42175</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>42176</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>42178</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>42179</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>42180</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>42181</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>42182</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>42183</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>42186</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>42187</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>42188</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>42189</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>42190</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>42191</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>42192</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>42193</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>42194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,10 +2400,10 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>262</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>239</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>171</c:v>
@@ -3807,7 +2412,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>247</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>176</c:v>
@@ -5011,11 +3616,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="453179960"/>
-        <c:axId val="453183096"/>
+        <c:axId val="773777376"/>
+        <c:axId val="773774656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453179960"/>
+        <c:axId val="773777376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5114,7 +3719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453183096"/>
+        <c:crossAx val="773774656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5123,7 +3728,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="453183096"/>
+        <c:axId val="773774656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5216,7 +3821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453179960"/>
+        <c:crossAx val="773777376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5373,10 +3978,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$743:$A$1465</c:f>
+              <c:f>Sheet1!$A$743:$A$1000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="723"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>41473</c:v>
                 </c:pt>
@@ -6150,1398 +4755,6 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>41730</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>41731</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>41732</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>41733</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>41734</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>41735</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>41736</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>41737</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>41738</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>41739</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>41740</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>41741</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>41742</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>41743</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>41744</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>41745</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>41746</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>41747</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>41748</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>41749</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>41750</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>41751</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>41752</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>41753</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>41754</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>41755</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>41756</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>41757</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>41758</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>41759</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>41760</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>41761</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>41762</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>41763</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>41764</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>41765</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>41766</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>41767</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>41768</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>41769</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>41770</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>41771</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>41772</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>41773</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>41774</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>41775</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>41776</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>41777</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>41778</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>41779</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>41780</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>41781</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>41782</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>41783</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>41784</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>41785</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>41786</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>41787</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>41788</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>41789</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>41790</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>41792</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>41793</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>41794</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>41795</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>41796</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>41797</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>41798</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>41799</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>41800</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>41801</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>41802</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>41803</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>41804</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>41805</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>41806</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>41807</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>41808</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>41809</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>41810</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>41811</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>41812</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>41813</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>41814</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>41815</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>41816</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>41817</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>41818</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>41819</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>41821</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>41822</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>41823</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>41824</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>41825</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>41826</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>41827</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>41828</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>41829</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>41830</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>41831</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>41832</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>41833</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>41834</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>41835</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>41836</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>41837</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>41838</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>41839</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>41840</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>41841</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>41842</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>41843</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>41844</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>41845</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>41846</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>41847</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>41848</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>41849</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>41850</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>41851</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>41852</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>41853</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>41854</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>41855</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>41856</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>41857</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>41858</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>41859</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>41860</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>41861</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>41862</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>41863</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>41864</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>41865</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>41866</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>41867</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>41868</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>41869</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>41870</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>41871</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>41872</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>41873</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>41874</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>41875</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>41876</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>41877</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>41878</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>41879</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>41880</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>41881</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>41882</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>41884</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>41885</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>41886</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>41887</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>41888</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>41889</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>41890</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>41891</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>41892</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>41893</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>41894</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>41895</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>41896</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>41897</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>41898</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>41899</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>41900</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>41901</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>41902</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>41903</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>41904</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>41905</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>41906</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>41907</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>41908</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>41910</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>41911</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>41912</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>41913</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>41914</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>41915</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>41916</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>41917</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>41918</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>41919</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>41920</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>41921</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>41922</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>41923</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>41924</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>41925</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>41926</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>41927</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>41928</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>41929</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>41930</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>41931</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>41932</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>41933</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>41934</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>41935</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>41936</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>41937</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>41938</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>41939</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>41940</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>41941</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>41942</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>41943</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>41944</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>41945</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>41946</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>41947</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>41948</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>41949</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>41950</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>41951</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>41952</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>41953</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>41954</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>41955</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>41956</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>41957</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>41958</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>41959</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>41960</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>41961</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>41962</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>41963</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>41964</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>41965</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>41966</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>41967</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>41968</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>41969</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>41970</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>41971</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>41972</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>41973</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>41975</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>41976</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>41977</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>41978</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>41979</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>41980</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>41981</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>41982</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>41983</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>41984</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>41985</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>41986</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>41987</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>41988</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>41989</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>41990</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>41991</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>41992</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>41993</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>41994</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>41995</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>41996</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>41997</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>41998</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>41999</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>42001</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>42002</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>42003</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>42005</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>42006</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>42007</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>42008</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>42009</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>42010</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>42011</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>42012</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>42013</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>42014</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>42015</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>42016</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>42017</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>42018</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>42019</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>42020</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>42021</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>42023</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>42024</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>42025</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>42026</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>42027</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>42028</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>42030</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>42031</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>42032</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>42033</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>42034</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>42035</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>42036</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>42037</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>42038</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>42039</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>42040</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>42041</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>42042</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>42043</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>42044</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>42045</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>42046</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>42047</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>42048</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>42049</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>42050</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>42051</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>42052</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>42053</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>42054</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>42055</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>42056</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>42057</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>42058</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>42059</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>42060</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>42061</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>42062</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>42063</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>42065</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>42066</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>42067</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>42068</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>42069</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>42070</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>42071</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>42072</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>42073</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>42074</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>42075</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>42076</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>42077</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>42078</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>42079</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>42080</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>42081</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>42082</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>42083</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>42084</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>42085</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>42086</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>42087</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>42088</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>42089</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>42090</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>42091</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>42092</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>42093</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>42094</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>42095</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>42096</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>42097</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>42098</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>42099</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>42100</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>42101</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>42102</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>42103</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>42104</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>42105</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>42106</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>42107</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>42108</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>42109</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>42111</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>42112</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>42113</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>42115</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>42116</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>42117</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>42118</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>42119</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>42120</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>42122</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>42123</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>42124</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>42125</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>42126</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>42127</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>42128</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>42129</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>42130</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>42131</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>42132</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>42133</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>42134</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>42135</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>42136</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>42137</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>42138</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>42139</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>42140</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>42141</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>42142</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>42143</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>42144</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>42145</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>42146</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>42147</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>42148</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>42149</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>42150</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>42151</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>42152</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>42153</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>42154</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>42155</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>42157</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>42158</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>42159</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>42160</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>42161</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>42162</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>42163</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>42164</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>42165</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>42166</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>42167</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>42168</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>42169</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>42171</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>42172</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>42173</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>42174</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>42175</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>42176</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>42178</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>42179</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>42180</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>42181</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>42182</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>42183</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>42186</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>42187</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>42188</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>42189</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>42190</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>42191</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>42192</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>42193</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>42194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9632,10 +6845,10 @@
                   <c:v>5737</c:v>
                 </c:pt>
                 <c:pt idx="693">
-                  <c:v>15729</c:v>
+                  <c:v>5729</c:v>
                 </c:pt>
                 <c:pt idx="694">
-                  <c:v>24043</c:v>
+                  <c:v>6043</c:v>
                 </c:pt>
                 <c:pt idx="695">
                   <c:v>8911</c:v>
@@ -9743,10 +6956,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$743:$A$1465</c:f>
+              <c:f>Sheet1!$A$743:$A$1000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="723"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>41473</c:v>
                 </c:pt>
@@ -10520,1398 +7733,6 @@
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>41730</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>41731</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>41732</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>41733</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>41734</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>41735</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>41736</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>41737</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>41738</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>41739</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>41740</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>41741</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>41742</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>41743</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>41744</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>41745</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>41746</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>41747</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>41748</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>41749</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>41750</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>41751</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>41752</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>41753</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>41754</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>41755</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>41756</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>41757</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>41758</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>41759</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>41760</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>41761</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>41762</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>41763</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>41764</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>41765</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>41766</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>41767</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>41768</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>41769</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>41770</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>41771</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>41772</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>41773</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>41774</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>41775</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>41776</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>41777</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>41778</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>41779</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>41780</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>41781</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>41782</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>41783</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>41784</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>41785</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>41786</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>41787</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>41788</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>41789</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>41790</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>41792</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>41793</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>41794</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>41795</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>41796</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>41797</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>41798</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>41799</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>41800</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>41801</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>41802</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>41803</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>41804</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>41805</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>41806</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>41807</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>41808</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>41809</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>41810</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>41811</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>41812</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>41813</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>41814</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>41815</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>41816</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>41817</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>41818</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>41819</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>41821</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>41822</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>41823</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>41824</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>41825</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>41826</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>41827</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>41828</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>41829</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>41830</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>41831</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>41832</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>41833</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>41834</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>41835</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>41836</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>41837</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>41838</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>41839</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>41840</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>41841</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>41842</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>41843</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>41844</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>41845</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>41846</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>41847</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>41848</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>41849</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>41850</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>41851</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>41852</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>41853</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>41854</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>41855</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>41856</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>41857</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>41858</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>41859</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>41860</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>41861</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>41862</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>41863</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>41864</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>41865</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>41866</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>41867</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>41868</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>41869</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>41870</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>41871</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>41872</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>41873</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>41874</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>41875</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>41876</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>41877</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>41878</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>41879</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>41880</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>41881</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>41882</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>41884</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>41885</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>41886</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>41887</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>41888</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>41889</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>41890</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>41891</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>41892</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>41893</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>41894</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>41895</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>41896</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>41897</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>41898</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>41899</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>41900</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>41901</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>41902</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>41903</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>41904</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>41905</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>41906</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>41907</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>41908</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>41910</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>41911</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>41912</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>41913</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>41914</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>41915</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>41916</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>41917</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>41918</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>41919</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>41920</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>41921</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>41922</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>41923</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>41924</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>41925</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>41926</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>41927</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>41928</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>41929</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>41930</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>41931</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>41932</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>41933</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>41934</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>41935</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>41936</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>41937</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>41938</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>41939</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>41940</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>41941</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>41942</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>41943</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>41944</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>41945</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>41946</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>41947</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>41948</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>41949</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>41950</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>41951</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>41952</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>41953</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>41954</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>41955</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>41956</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>41957</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>41958</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>41959</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>41960</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>41961</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>41962</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>41963</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>41964</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>41965</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>41966</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>41967</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>41968</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>41969</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>41970</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>41971</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>41972</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>41973</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>41975</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>41976</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>41977</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>41978</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>41979</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>41980</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>41981</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>41982</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>41983</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>41984</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>41985</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>41986</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>41987</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>41988</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>41989</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>41990</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>41991</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>41992</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>41993</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>41994</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>41995</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>41996</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>41997</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>41998</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>41999</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>42001</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>42002</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>42003</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>42005</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>42006</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>42007</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>42008</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>42009</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>42010</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>42011</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>42012</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>42013</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>42014</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>42015</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>42016</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>42017</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>42018</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>42019</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>42020</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>42021</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>42023</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>42024</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>42025</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>42026</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>42027</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>42028</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>42030</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>42031</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>42032</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>42033</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>42034</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>42035</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>42036</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>42037</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>42038</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>42039</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>42040</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>42041</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>42042</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>42043</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>42044</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>42045</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>42046</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>42047</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>42048</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>42049</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>42050</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>42051</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>42052</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>42053</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>42054</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>42055</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>42056</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>42057</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>42058</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>42059</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>42060</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>42061</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>42062</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>42063</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>42065</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>42066</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>42067</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>42068</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>42069</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>42070</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>42071</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>42072</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>42073</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>42074</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>42075</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>42076</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>42077</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>42078</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>42079</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>42080</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>42081</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>42082</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>42083</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>42084</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>42085</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>42086</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>42087</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>42088</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>42089</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>42090</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>42091</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>42092</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>42093</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>42094</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>42095</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>42096</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>42097</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>42098</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>42099</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>42100</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>42101</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>42102</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>42103</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>42104</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>42105</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>42106</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>42107</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>42108</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>42109</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>42111</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>42112</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>42113</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>42115</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>42116</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>42117</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>42118</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>42119</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>42120</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>42122</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>42123</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>42124</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>42125</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>42126</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>42127</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>42128</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>42129</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>42130</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>42131</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>42132</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>42133</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>42134</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>42135</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>42136</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>42137</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>42138</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>42139</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>42140</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>42141</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>42142</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>42143</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>42144</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>42145</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>42146</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>42147</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>42148</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>42149</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>42150</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>42151</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>42152</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>42153</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>42154</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>42155</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>42157</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>42158</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>42159</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>42160</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>42161</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>42162</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>42163</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>42164</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>42165</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>42166</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>42167</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>42168</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>42169</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>42171</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>42172</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>42173</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>42174</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>42175</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>42176</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>42178</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>42179</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>42180</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>42181</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>42182</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>42183</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>42186</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>42187</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>42188</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>42189</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>42190</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>42191</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>42192</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>42193</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>42194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14005,7 +9826,7 @@
                   <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="694">
-                  <c:v>1988</c:v>
+                  <c:v>988</c:v>
                 </c:pt>
                 <c:pt idx="695">
                   <c:v>413</c:v>
@@ -14102,11 +9923,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="458251592"/>
-        <c:axId val="458251200"/>
+        <c:axId val="773781728"/>
+        <c:axId val="773786624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458251592"/>
+        <c:axId val="773781728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14206,7 +10027,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458251200"/>
+        <c:crossAx val="773786624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -14215,7 +10036,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458251200"/>
+        <c:axId val="773786624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14327,7 +10148,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458251592"/>
+        <c:crossAx val="773781728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14501,10 +10322,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1468:$A$2190</c:f>
+              <c:f>Sheet1!$A$1468:$A$1724</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="723"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>41473</c:v>
                 </c:pt>
@@ -15275,1411 +11096,16 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>41729</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>41730</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>41731</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>41732</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>41733</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>41734</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>41735</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>41736</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>41737</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>41738</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>41739</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>41740</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>41741</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>41742</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>41743</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>41744</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>41745</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>41746</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>41747</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>41748</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>41749</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>41750</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>41751</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>41752</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>41753</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>41754</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>41755</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>41756</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>41757</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>41758</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>41759</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>41760</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>41761</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>41762</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>41763</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>41764</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>41765</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>41766</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>41767</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>41768</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>41769</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>41770</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>41771</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>41772</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>41773</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>41774</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>41775</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>41776</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>41777</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>41778</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>41779</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>41780</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>41781</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>41782</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>41783</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>41784</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>41785</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>41786</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>41787</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>41788</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>41789</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>41790</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>41792</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>41793</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>41794</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>41795</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>41796</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>41797</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>41798</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>41799</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>41800</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>41801</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>41802</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>41803</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>41804</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>41805</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>41806</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>41807</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>41808</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>41809</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>41810</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>41811</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>41812</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>41813</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>41814</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>41815</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>41816</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>41817</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>41818</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>41819</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>41821</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>41822</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>41823</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>41824</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>41825</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>41826</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>41827</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>41828</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>41829</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>41830</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>41831</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>41832</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>41833</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>41834</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>41835</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>41836</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>41837</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>41838</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>41839</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>41840</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>41841</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>41842</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>41843</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>41844</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>41845</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>41846</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>41847</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>41848</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>41849</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>41850</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>41851</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>41852</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>41853</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>41854</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>41855</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>41856</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>41857</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>41858</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>41859</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>41860</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>41861</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>41862</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>41863</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>41864</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>41865</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>41866</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>41867</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>41868</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>41869</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>41870</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>41871</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>41872</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>41873</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>41874</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>41875</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>41876</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>41877</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>41878</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>41879</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>41880</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>41881</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>41882</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>41884</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>41885</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>41886</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>41887</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>41888</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>41889</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>41890</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>41891</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>41892</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>41893</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>41894</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>41895</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>41896</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>41897</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>41898</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>41899</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>41900</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>41901</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>41902</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>41903</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>41904</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>41905</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>41906</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>41907</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>41908</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>41910</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>41911</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>41912</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>41913</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>41914</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>41915</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>41916</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>41917</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>41918</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>41919</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>41920</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>41921</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>41922</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>41923</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>41924</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>41925</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>41926</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>41927</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>41928</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>41929</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>41930</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>41931</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>41932</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>41933</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>41934</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>41935</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>41936</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>41937</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>41938</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>41939</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>41940</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>41941</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>41942</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>41943</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>41944</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>41945</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>41946</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>41947</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>41948</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>41949</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>41950</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>41951</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>41952</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>41953</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>41954</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>41955</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>41956</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>41957</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>41958</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>41959</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>41960</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>41961</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>41962</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>41963</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>41964</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>41965</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>41966</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>41967</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>41968</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>41969</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>41970</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>41971</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>41972</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>41973</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>41975</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>41976</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>41977</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>41978</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>41979</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>41980</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>41981</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>41982</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>41983</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>41984</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>41985</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>41986</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>41987</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>41988</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>41989</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>41990</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>41991</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>41992</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>41993</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>41994</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>41995</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>41996</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>41997</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>41998</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>41999</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>42001</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>42002</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>42003</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>42005</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>42006</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>42007</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>42008</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>42009</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>42010</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>42011</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>42012</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>42013</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>42014</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>42015</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>42016</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>42017</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>42018</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>42019</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>42020</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>42021</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>42023</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>42024</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>42025</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>42026</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>42027</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>42028</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>42030</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>42031</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>42032</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>42033</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>42034</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>42035</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>42036</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>42037</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>42038</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>42039</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>42040</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>42041</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>42042</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>42043</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>42044</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>42045</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>42046</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>42047</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>42048</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>42049</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>42050</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>42051</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>42052</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>42053</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>42054</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>42055</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>42056</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>42057</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>42058</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>42059</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>42060</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>42061</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>42062</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>42063</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>42065</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>42066</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>42067</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>42068</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>42069</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>42070</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>42071</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>42072</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>42073</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>42074</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>42075</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>42076</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>42077</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>42078</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>42079</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>42080</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>42081</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>42082</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>42083</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>42084</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>42085</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>42086</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>42087</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>42088</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>42089</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>42090</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>42091</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>42092</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>42093</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>42094</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>42095</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>42096</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>42097</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>42098</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>42099</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>42100</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>42101</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>42102</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>42103</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>42104</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>42105</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>42106</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>42107</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>42108</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>42109</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>42111</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>42112</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>42113</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>42115</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>42116</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>42117</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>42118</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>42119</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>42120</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>42122</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>42123</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>42124</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>42125</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>42126</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>42127</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>42128</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>42129</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>42130</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>42131</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>42132</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>42133</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>42134</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>42135</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>42136</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>42137</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>42138</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>42139</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>42140</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>42141</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>42142</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>42143</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>42144</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>42145</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>42146</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>42147</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>42148</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>42149</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>42150</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>42151</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>42152</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>42153</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>42154</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>42155</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>42157</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>42158</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>42159</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>42160</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>42161</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>42162</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>42163</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>42164</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>42165</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>42166</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>42167</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>42168</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>42169</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>42171</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>42172</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>42173</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>42174</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>42175</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>42176</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>42178</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>42179</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>42180</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>42181</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>42182</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>42183</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>42186</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>42187</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>42188</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>42189</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>42190</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>42191</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>42192</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>42193</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>42194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1468:$B$2190</c:f>
+              <c:f>Sheet1!$B$1468:$B$2189</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="723"/>
+                <c:ptCount val="722"/>
                 <c:pt idx="0">
                   <c:v>773</c:v>
                 </c:pt>
@@ -17659,10 +12085,10 @@
                   <c:v>69121</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>377175</c:v>
+                  <c:v>177175</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>323554</c:v>
+                  <c:v>163554</c:v>
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>180257</c:v>
@@ -17671,10 +12097,10 @@
                   <c:v>150604</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>411693</c:v>
+                  <c:v>211693</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>312374</c:v>
+                  <c:v>182374</c:v>
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>160251</c:v>
@@ -18860,11 +13286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="528926416"/>
-        <c:axId val="528926808"/>
+        <c:axId val="773775744"/>
+        <c:axId val="773780096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528926416"/>
+        <c:axId val="773775744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18963,7 +13389,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528926808"/>
+        <c:crossAx val="773780096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -18972,7 +13398,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528926808"/>
+        <c:axId val="773780096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19079,7 +13505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528926416"/>
+        <c:crossAx val="773775744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21741,8 +16167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1444" workbookViewId="0">
-      <selection activeCell="A1468" sqref="A1468:B2190"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B740" sqref="B740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24427,7 +18853,7 @@
         <v>41799</v>
       </c>
       <c r="B345">
-        <v>262</v>
+        <v>82</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
@@ -24435,7 +18861,7 @@
         <v>41800</v>
       </c>
       <c r="B346">
-        <v>239</v>
+        <v>89</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
@@ -24459,7 +18885,7 @@
         <v>41803</v>
       </c>
       <c r="B349">
-        <v>247</v>
+        <v>117</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
@@ -35218,7 +29644,7 @@
         <v>42166</v>
       </c>
       <c r="B1436">
-        <v>15729</v>
+        <v>5729</v>
       </c>
       <c r="C1436">
         <v>832</v>
@@ -35229,10 +29655,10 @@
         <v>42167</v>
       </c>
       <c r="B1437">
-        <v>24043</v>
+        <v>6043</v>
       </c>
       <c r="C1437">
-        <v>1988</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.15">
@@ -38145,7 +32571,7 @@
         <v>41799</v>
       </c>
       <c r="B1794">
-        <v>377175</v>
+        <v>177175</v>
       </c>
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.15">
@@ -38153,7 +32579,7 @@
         <v>41800</v>
       </c>
       <c r="B1795">
-        <v>323554</v>
+        <v>163554</v>
       </c>
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.15">
@@ -38177,7 +32603,7 @@
         <v>41803</v>
       </c>
       <c r="B1798">
-        <v>411693</v>
+        <v>211693</v>
       </c>
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.15">
@@ -38185,7 +32611,7 @@
         <v>41804</v>
       </c>
       <c r="B1799">
-        <v>312374</v>
+        <v>182374</v>
       </c>
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.15">
@@ -41311,7 +35737,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>